--- a/biology/Botanique/Taxiphyllum/Taxiphyllum.xlsx
+++ b/biology/Botanique/Taxiphyllum/Taxiphyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taxiphyllum est un genre de mousses de la famille des Hypnaceae. L'une des espèces les plus connues et largement utilisée en aquariophilie est Taxiphyllum barbieri (mousse de Java).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 décembre 2018) :
 Taxiphyllum alternans (Card.) Iwats.
 Taxiphyllum barbieri (Card. &amp; Coppey) Iwats.
 Taxiphyllum cuspidifolium (Card.) Iwats.
@@ -521,7 +535,7 @@
 Taxiphyllum deplanatum (Bruch &amp; Schimp. ex Sull.) Fleisch.
 Taxiphyllum taxirameum (Mitt.) Fleisch.
 Taxiphyllum wissgrillii (Garov.) Wijk &amp; Margad.
-Selon Catalogue of Life                                   (5 décembre 2018)[3] :
+Selon Catalogue of Life                                   (5 décembre 2018) :
 Taxiphyllum alternans Iwatsuki, 1963
 Taxiphyllum angustirete W. R. Buck, 1987
 Taxiphyllum aomoriense Iwatsuki, 1963
@@ -554,12 +568,12 @@
 Taxiphyllum torrentium W. R. Buck, 1987
 Taxiphyllum whittierianum H. A. Miller &amp; D. R. Smith, 1968 (1969)
 Taxiphyllum wissgrillii Wijk &amp; Margadant, 1960
-Selon ITIS      (5 décembre 2018)[4] :
+Selon ITIS      (5 décembre 2018) :
 Taxiphyllum alternans (Card.) Iwats.
 Taxiphyllum cuspidifolium (Card.) Iwats.
 Taxiphyllum deplanatum (Bruch &amp; Schimp. ex Sull.) Fleisch.
 Taxiphyllum taxirameum (Mitt.) Fleisch.
-Selon NCBI  (5 décembre 2018)[5] :
+Selon NCBI  (5 décembre 2018) :
 Taxiphyllum alternans Isopterygium alternans Cardot
 Taxiphyllum aomoriense Plagiothecium aomoriense Besch.
 Taxiphyllum cuspidifolium Isopterygium cuspidifolium Cardot
@@ -569,7 +583,7 @@
 Taxiphyllum planissimum (Mitt.) Broth., 1925
 Taxiphyllum taxirameum (Mitt.) M.Fleisch.
 Taxiphyllum wissgrillii (Garov.) Wijk &amp; Margad.
-Selon The Plant List            (5 décembre 2018)[6] :
+Selon The Plant List            (5 décembre 2018) :
 Taxiphyllum alare (Broth. &amp; Yasuda) S.H. Lin
 Taxiphyllum alternans (Cardot) Z. Iwats.
 Taxiphyllum andersonii (E.B. Bartram) H.A. Crum
@@ -629,7 +643,7 @@
 Taxiphyllum tsunodae (Broth.) Sakurai
 Taxiphyllum whittierianum H.A. Mill. &amp; D.R. Sm.
 Taxiphyllum wissgrillii (Garov.) Wijk &amp; Margad.
-Selon Tropicos                                           (5 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Taxiphyllum alare (Broth. &amp; Yasuda) S.H. Lin
 Taxiphyllum alternans (Cardot) Z. Iwats.
 Taxiphyllum andersonii (E.B. Bartram) H.A. Crum
